--- a/public/data_example/multilabel_tabular_classification.xlsx
+++ b/public/data_example/multilabel_tabular_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap Top\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Lab ISE\eval-res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CBDC0-89A9-4C7F-B473-0FF81140F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{682018AB-E407-454D-9611-CDD3E171C313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{662EDF44-48C1-4053-AF07-8610C7E5578E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BEB51605-DA44-4183-9DB2-4CB14845E49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,38 +27,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>movie_summary</t>
-  </si>
-  <si>
-    <t>genres</t>
-  </si>
-  <si>
-    <t>A young wizard discovers his magical abilities and attends a special school.</t>
-  </si>
-  <si>
-    <t>adventure; fantasy</t>
-  </si>
-  <si>
-    <t>A group of thieves plans a daring, high-stakes heist on the city's largest bank.</t>
-  </si>
-  <si>
-    <t>crime; thriller; drama</t>
-  </si>
-  <si>
-    <t>Two strangers meet unexpectedly on a train journey and spend a magical day together.</t>
-  </si>
-  <si>
-    <t>romance; drama</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>Movie Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>Avengers: Endgame</t>
+  </si>
+  <si>
+    <t>Action; Adventure; Sci-Fi</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Romance; Disaster; Historical</t>
+  </si>
+  <si>
+    <t>The Hangover</t>
+  </si>
+  <si>
+    <t>Thriller; Comedy; Drama; Social Commentary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,17 +67,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -96,41 +91,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,61 +416,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB544CB8-F533-4817-8728-FC1ED0B64716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D6D592-EBDF-4731-A127-45781C935000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
